--- a/raw_data_finals/usage.xlsx
+++ b/raw_data_finals/usage.xlsx
@@ -118,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,11 +157,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -178,6 +193,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,7 +524,7 @@
       <c r="B2" s="6">
         <v>57.073451299465297</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>68.830836114974161</v>
       </c>
       <c r="D2" s="6">
@@ -535,7 +553,7 @@
       <c r="B3" s="6">
         <v>38.462543267030981</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>46.385998251395634</v>
       </c>
       <c r="D3" s="6">
@@ -622,7 +640,7 @@
       <c r="B6" s="8">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1.298E-2</v>
       </c>
       <c r="D6" s="8">
@@ -651,7 +669,7 @@
       <c r="B7" s="8">
         <v>1.1833291879272101E-2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1.4867779059072999E-2</v>
       </c>
       <c r="D7" s="8">
@@ -680,8 +698,8 @@
       <c r="B8" s="5">
         <v>9.1961760000000004E-3</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.0084313000000001E-2</v>
+      <c r="C8" s="6">
+        <v>1.0084312999999999E-2</v>
       </c>
       <c r="D8" s="5">
         <v>1.0978583000000001E-3</v>
